--- a/biology/Botanique/Château_Marquis_de_Terme/Château_Marquis_de_Terme.xlsx
+++ b/biology/Botanique/Château_Marquis_de_Terme/Château_Marquis_de_Terme.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_Marquis_de_Terme</t>
+          <t>Château_Marquis_de_Terme</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le château Marquis de Terme, est un domaine viticole de 38 hectares situé à Margaux en Gironde. En AOC margaux, il est classé quatrième grand cru dans la classification officielle des vins de Bordeaux de 1855.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_Marquis_de_Terme</t>
+          <t>Château_Marquis_de_Terme</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 	Illustrations du château Marquis de Terme au XIXe siècle
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_Marquis_de_Terme</t>
+          <t>Château_Marquis_de_Terme</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,6 +561,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -554,7 +570,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_Marquis_de_Terme</t>
+          <t>Château_Marquis_de_Terme</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,6 +589,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
